--- a/examples/Power_ThermalGen.xlsx
+++ b/examples/Power_ThermalGen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\InOutModule\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339901A-7C78-4648-BF76-C49952727E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B93842-68ED-4B45-AB2A-8ECA6447C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41895" yWindow="-19440" windowWidth="21600" windowHeight="12645" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="105" r:id="rId1"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="128">
   <si>
     <t>[MW]</t>
   </si>
@@ -410,9 +410,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>[h]</t>
   </si>
   <si>
@@ -617,7 +614,19 @@
     <t>Equivalent forced outage rate of the generator</t>
   </si>
   <si>
-    <t>v0.0.3</t>
+    <t>v0.0.4r</t>
+  </si>
+  <si>
+    <t>excl</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>Commission Year</t>
+  </si>
+  <si>
+    <t>Decommission Year</t>
   </si>
 </sst>
 </file>
@@ -1241,27 +1250,27 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -1279,10 +1288,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>15</v>
@@ -1297,16 +1306,16 @@
         <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>6</v>
@@ -1324,39 +1333,39 @@
         <v>19</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="AD3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -1374,10 +1383,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>15</v>
@@ -1392,16 +1401,16 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>6</v>
@@ -1428,214 +1437,214 @@
         <v>54</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="AD4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="U5" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AC5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AD5" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="AE5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -1653,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>17</v>
@@ -1671,19 +1680,19 @@
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>11</v>
@@ -1692,28 +1701,28 @@
         <v>41</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -1799,10 +1808,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1888,10 +1897,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -1977,10 +1986,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -2066,10 +2075,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="AD11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE11" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -2155,10 +2164,10 @@
         <v>9.9000199999999996</v>
       </c>
       <c r="AD12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -2244,10 +2253,10 @@
         <v>9.9157949999999992</v>
       </c>
       <c r="AD13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -2333,10 +2342,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -2422,10 +2431,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD15" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE15" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2511,15 +2520,15 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
@@ -2602,10 +2611,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="AD17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -2691,10 +2700,10 @@
         <v>9.9000199999999996</v>
       </c>
       <c r="AD18" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE18" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -2780,10 +2789,10 @@
         <v>9.9157949999999992</v>
       </c>
       <c r="AD19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE19" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -2869,10 +2878,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE20" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE20" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -2958,10 +2967,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE21" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE21" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -3047,10 +3056,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD22" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE22" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE22" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -3136,10 +3145,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="AD23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE23" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE23" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -3225,10 +3234,10 @@
         <v>9.9000199999999996</v>
       </c>
       <c r="AD24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE24" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -3314,10 +3323,10 @@
         <v>9.9157949999999992</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -3403,10 +3412,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD26" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -3492,10 +3501,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE27" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE27" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="15:17" x14ac:dyDescent="0.25">
@@ -3632,27 +3641,27 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -3670,10 +3679,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>15</v>
@@ -3688,16 +3697,16 @@
         <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>6</v>
@@ -3715,39 +3724,39 @@
         <v>19</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="AD3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -3765,10 +3774,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>15</v>
@@ -3783,16 +3792,16 @@
         <v>2</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>6</v>
@@ -3819,214 +3828,214 @@
         <v>54</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="AD4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="U5" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AC5" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AD5" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="AE5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -4044,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>17</v>
@@ -4062,19 +4071,19 @@
         <v>1</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>11</v>
@@ -4083,28 +4092,28 @@
         <v>41</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -4190,10 +4199,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE8" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -4279,10 +4288,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -4368,10 +4377,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE10" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4457,10 +4466,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="AD11" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE11" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE11" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4546,10 +4555,10 @@
         <v>9.9000199999999996</v>
       </c>
       <c r="AD12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE12" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -4635,10 +4644,10 @@
         <v>9.9157949999999992</v>
       </c>
       <c r="AD13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -4724,10 +4733,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE14" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE14" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -4813,10 +4822,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD15" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE15" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4902,15 +4911,15 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD16" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE16" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
@@ -4993,10 +5002,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="AD17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE17" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE17" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -5082,10 +5091,10 @@
         <v>9.9000199999999996</v>
       </c>
       <c r="AD18" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE18" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE18" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -5171,10 +5180,10 @@
         <v>9.9157949999999992</v>
       </c>
       <c r="AD19" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE19" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE19" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -5260,10 +5269,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE20" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE20" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -5349,10 +5358,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE21" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE21" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -5438,10 +5447,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD22" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE22" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE22" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
@@ -5527,10 +5536,10 @@
         <v>14.479570000000001</v>
       </c>
       <c r="AD23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE23" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE23" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
@@ -5616,10 +5625,10 @@
         <v>9.9000199999999996</v>
       </c>
       <c r="AD24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE24" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE24" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -5705,10 +5714,10 @@
         <v>9.9157949999999992</v>
       </c>
       <c r="AD25" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE25" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -5794,10 +5803,10 @@
         <v>12.818199999999999</v>
       </c>
       <c r="AD26" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE26" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -5883,10 +5892,10 @@
         <v>13.746700000000001</v>
       </c>
       <c r="AD27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE27" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="AE27" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="19:19" x14ac:dyDescent="0.25">
@@ -5903,21 +5912,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004934E3CB1C58BA43BC6E229E2BF20201" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e33ccc94e63df24f58cb47229b46e190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="87003a75-b64f-4b22-bf19-aa30740e3d46" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0f7a5bb162b669de9ce8ff8278c29f" ns2:_="">
     <xsd:import namespace="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
@@ -6063,31 +6057,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{773946F7-566C-458F-95C9-79B0CCE20E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6103,4 +6088,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87003a75-b64f-4b22-bf19-aa30740e3d46"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/examples/Power_ThermalGen.xlsx
+++ b/examples/Power_ThermalGen.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -111,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -151,7 +152,10 @@
     <xf numFmtId="165" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -241,9 +245,7 @@
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">
-            If a line has a value in this column, it is not read in (i.e., does not exist).
-        </t>
+        <t>If a line has a value in this column, it is not read in (i.e., does not exist).</t>
       </text>
     </comment>
     <comment ref="B3" authorId="0" shapeId="0">
@@ -283,9 +285,7 @@
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">
-            If a line has a value in this column, it is not read in (i.e., does not exist).
-        </t>
+        <t>If a line has a value in this column, it is not read in (i.e., does not exist).</t>
       </text>
     </comment>
     <comment ref="B3" authorId="0" shapeId="0">
@@ -619,30 +619,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
     <col width="15.7109375" customWidth="1" min="5" max="5"/>
-    <col width="20.0109375" customWidth="1" min="6" max="6"/>
-    <col width="19.7109375" customWidth="1" min="7" max="7"/>
-    <col width="19.7109375" customWidth="1" min="8" max="8"/>
-    <col width="19.7109375" customWidth="1" min="9" max="9"/>
-    <col width="19.7109375" customWidth="1" min="10" max="10"/>
-    <col width="19.7109375" customWidth="1" min="11" max="11"/>
-    <col width="19.7109375" customWidth="1" min="12" max="12"/>
-    <col width="19.7109375" customWidth="1" min="13" max="13"/>
-    <col width="19.7109375" customWidth="1" min="14" max="14"/>
-    <col width="19.7109375" customWidth="1" min="15" max="15"/>
-    <col width="19.7109375" customWidth="1" min="16" max="16"/>
-    <col width="29.7109375" customWidth="1" min="17" max="17"/>
-    <col width="19.7109375" customWidth="1" min="18" max="18"/>
-    <col width="19.7109375" customWidth="1" min="19" max="19"/>
-    <col width="19.7109375" customWidth="1" min="20" max="20"/>
-    <col width="19.7109375" customWidth="1" min="21" max="21"/>
-    <col width="17.7109375" customWidth="1" min="22" max="22"/>
-    <col width="19.7109375" customWidth="1" min="23" max="23"/>
-    <col width="19.7109375" customWidth="1" min="24" max="24"/>
-    <col width="19.7109375" customWidth="1" min="25" max="25"/>
+    <col width="15.7109375" customWidth="1" min="6" max="6"/>
+    <col width="15.7109375" customWidth="1" min="7" max="7"/>
+    <col width="15.7109375" customWidth="1" min="8" max="8"/>
+    <col width="17.5709375" customWidth="1" min="9" max="9"/>
+    <col width="17.5709375" customWidth="1" min="10" max="10"/>
+    <col width="15.7109375" customWidth="1" min="11" max="11"/>
+    <col width="15.7109375" customWidth="1" min="12" max="12"/>
+    <col width="15.7109375" customWidth="1" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" min="15" max="15"/>
+    <col width="15.7109375" customWidth="1" min="16" max="16"/>
+    <col width="28.7109375" customWidth="1" min="17" max="17"/>
+    <col width="23.7109375" customWidth="1" min="18" max="18"/>
+    <col width="15.7109375" customWidth="1" min="19" max="19"/>
+    <col width="22.7109375" customWidth="1" min="20" max="20"/>
+    <col width="15.7109375" customWidth="1" min="21" max="21"/>
+    <col width="15.7109375" customWidth="1" min="22" max="22"/>
+    <col width="15.7109375" customWidth="1" min="23" max="23"/>
+    <col width="15.7109375" customWidth="1" min="24" max="24"/>
+    <col width="15.7109375" customWidth="1" min="25" max="25"/>
     <col width="20.2109375" customWidth="1" min="26" max="26"/>
     <col width="20.2109375" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Generator name</t>
+          <t>Generator/Unit name</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -1043,52 +1043,52 @@
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>Maximum active power output of the generator</t>
+          <t>Maximum active power output of the unit</t>
         </is>
       </c>
       <c r="H5" s="7" t="inlineStr">
         <is>
-          <t>Minimum active power output of the generator</t>
+          <t>Minimum active power output of the unit</t>
         </is>
       </c>
       <c r="I5" s="7" t="inlineStr">
         <is>
-          <t>Rate at which the generator can increase its output per time step</t>
+          <t>Rate at which the unit can increase its output per time step</t>
         </is>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
-          <t>Rate at which the generator can decrease its output per time step</t>
+          <t>Rate at which the unit can decrease its output per time step</t>
         </is>
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
-          <t>Minimum time the generator has to be on after a startup</t>
+          <t>Minimum time the unit has to be on after a startup</t>
         </is>
       </c>
       <c r="L5" s="7" t="inlineStr">
         <is>
-          <t>Minimum time the generator has to be off after a shutdown</t>
+          <t>Minimum time the unit has to be off after a shutdown</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>Maximum reactive power output of the generator</t>
+          <t>Maximum reactive power output of the unit</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t>Minimum reactive power of the generator</t>
+          <t>Minimum reactive power output of the unit</t>
         </is>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
-          <t>Inertia constant H of the generator</t>
+          <t>Inertia constant H of the unit</t>
         </is>
       </c>
       <c r="P5" s="7" t="inlineStr">
         <is>
-          <t>Fuel cost of the thermal generator</t>
+          <t>Fuel cost of the unit</t>
         </is>
       </c>
       <c r="Q5" s="7" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="S5" s="7" t="inlineStr">
         <is>
-          <t>Operation and maintenance cost of the generator</t>
+          <t>Operation and maintenance cost of the unit</t>
         </is>
       </c>
       <c r="T5" s="7" t="inlineStr">
@@ -1113,27 +1113,27 @@
       </c>
       <c r="U5" s="7" t="inlineStr">
         <is>
-          <t>Equivalent forced outage rate of the generator</t>
+          <t>Equivalent forced outage rate of the unit</t>
         </is>
       </c>
       <c r="V5" s="7" t="inlineStr">
         <is>
-          <t>Whether the model can invest in the generator (1) or not (0)</t>
+          <t>Whether the model can invest in the unit (1) or not (0)</t>
         </is>
       </c>
       <c r="W5" s="7" t="inlineStr">
         <is>
-          <t>Annualized investment cost for the generator</t>
+          <t>Annualized investment cost per MW</t>
         </is>
       </c>
       <c r="X5" s="7" t="inlineStr">
         <is>
-          <t>Firm capacity coefficient of the generator</t>
+          <t>Firm capacity coefficient of the unit</t>
         </is>
       </c>
       <c r="Y5" s="7" t="inlineStr">
         <is>
-          <t>Specific CO2 emissions of the generator</t>
+          <t>Specific CO2 emissions of the unit</t>
         </is>
       </c>
       <c r="Z5" s="7" t="inlineStr">
@@ -1547,10 +1547,10 @@
       <c r="W8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="15" t="n">
+      <c r="X8" s="16" t="n">
         <v>0.97</v>
       </c>
-      <c r="Y8" s="16" t="n">
+      <c r="Y8" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z8" s="13" t="n">
@@ -1559,18 +1559,18 @@
       <c r="AA8" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB8" s="17" t="n">
+      <c r="AB8" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC8" s="17" t="n">
+      <c r="AC8" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD8" s="18" t="inlineStr">
+      <c r="AD8" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE8" s="18" t="inlineStr">
+      <c r="AE8" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1650,10 +1650,10 @@
       <c r="W9" s="15" t="n">
         <v>145591.3071</v>
       </c>
-      <c r="X9" s="15" t="n">
+      <c r="X9" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y9" s="16" t="n">
+      <c r="Y9" s="17" t="n">
         <v>0.355</v>
       </c>
       <c r="Z9" s="13" t="n">
@@ -1662,18 +1662,18 @@
       <c r="AA9" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC9" s="17" t="n">
+      <c r="AC9" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD9" s="18" t="inlineStr">
+      <c r="AD9" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE9" s="18" t="inlineStr">
+      <c r="AE9" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1753,10 +1753,10 @@
       <c r="W10" s="15" t="n">
         <v>146591.3071</v>
       </c>
-      <c r="X10" s="15" t="n">
+      <c r="X10" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y10" s="16" t="n">
+      <c r="Y10" s="17" t="n">
         <v>0.335</v>
       </c>
       <c r="Z10" s="13" t="n">
@@ -1765,18 +1765,18 @@
       <c r="AA10" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB10" s="17" t="n">
+      <c r="AB10" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC10" s="17" t="n">
+      <c r="AC10" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD10" s="18" t="inlineStr">
+      <c r="AD10" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE10" s="18" t="inlineStr">
+      <c r="AE10" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1856,10 +1856,10 @@
       <c r="W11" s="15" t="n">
         <v>147591.3071</v>
       </c>
-      <c r="X11" s="15" t="n">
+      <c r="X11" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y11" s="16" t="n">
+      <c r="Y11" s="17" t="n">
         <v>0.332</v>
       </c>
       <c r="Z11" s="13" t="n">
@@ -1868,18 +1868,18 @@
       <c r="AA11" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB11" s="17" t="n">
+      <c r="AB11" s="18" t="n">
         <v>46.561055</v>
       </c>
-      <c r="AC11" s="17" t="n">
+      <c r="AC11" s="18" t="n">
         <v>14.47957</v>
       </c>
-      <c r="AD11" s="18" t="inlineStr">
+      <c r="AD11" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE11" s="18" t="inlineStr">
+      <c r="AE11" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -1959,10 +1959,10 @@
       <c r="W12" s="15" t="n">
         <v>148591.3071</v>
       </c>
-      <c r="X12" s="15" t="n">
+      <c r="X12" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y12" s="16" t="n">
+      <c r="Y12" s="17" t="n">
         <v>0.319</v>
       </c>
       <c r="Z12" s="13" t="n">
@@ -1971,18 +1971,18 @@
       <c r="AA12" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="18" t="n">
         <v>47.0552</v>
       </c>
-      <c r="AC12" s="17" t="n">
+      <c r="AC12" s="18" t="n">
         <v>9.90002</v>
       </c>
-      <c r="AD12" s="18" t="inlineStr">
+      <c r="AD12" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE12" s="18" t="inlineStr">
+      <c r="AE12" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2062,10 +2062,10 @@
       <c r="W13" s="15" t="n">
         <v>41818.7797</v>
       </c>
-      <c r="X13" s="15" t="n">
+      <c r="X13" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y13" s="16" t="n">
+      <c r="Y13" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z13" s="13" t="n">
@@ -2074,18 +2074,18 @@
       <c r="AA13" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="18" t="n">
         <v>47.066462</v>
       </c>
-      <c r="AC13" s="17" t="n">
+      <c r="AC13" s="18" t="n">
         <v>9.915794999999999</v>
       </c>
-      <c r="AD13" s="18" t="inlineStr">
+      <c r="AD13" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE13" s="18" t="inlineStr">
+      <c r="AE13" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2165,10 +2165,10 @@
       <c r="W14" s="15" t="n">
         <v>42818.7797</v>
       </c>
-      <c r="X14" s="15" t="n">
+      <c r="X14" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y14" s="16" t="n">
+      <c r="Y14" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z14" s="13" t="n">
@@ -2177,18 +2177,18 @@
       <c r="AA14" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC14" s="17" t="n">
+      <c r="AC14" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD14" s="18" t="inlineStr">
+      <c r="AD14" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE14" s="18" t="inlineStr">
+      <c r="AE14" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2268,10 +2268,10 @@
       <c r="W15" s="15" t="n">
         <v>43818.7797</v>
       </c>
-      <c r="X15" s="15" t="n">
+      <c r="X15" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y15" s="16" t="n">
+      <c r="Y15" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z15" s="13" t="n">
@@ -2280,18 +2280,18 @@
       <c r="AA15" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC15" s="17" t="n">
+      <c r="AC15" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD15" s="18" t="inlineStr">
+      <c r="AD15" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE15" s="18" t="inlineStr">
+      <c r="AE15" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -2371,10 +2371,10 @@
       <c r="W16" s="15" t="n">
         <v>44818.7797</v>
       </c>
-      <c r="X16" s="15" t="n">
+      <c r="X16" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y16" s="16" t="n">
+      <c r="Y16" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z16" s="13" t="n">
@@ -2383,18 +2383,18 @@
       <c r="AA16" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC16" s="17" t="n">
+      <c r="AC16" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD16" s="18" t="inlineStr">
+      <c r="AD16" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE16" s="18" t="inlineStr">
+      <c r="AE16" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -2478,10 +2478,10 @@
       <c r="W17" s="15" t="n">
         <v>45818.7797</v>
       </c>
-      <c r="X17" s="15" t="n">
+      <c r="X17" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y17" s="16" t="n">
+      <c r="Y17" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z17" s="13" t="n">
@@ -2490,18 +2490,18 @@
       <c r="AA17" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="18" t="n">
         <v>46.561055</v>
       </c>
-      <c r="AC17" s="17" t="n">
+      <c r="AC17" s="18" t="n">
         <v>14.47957</v>
       </c>
-      <c r="AD17" s="18" t="inlineStr">
+      <c r="AD17" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE17" s="18" t="inlineStr">
+      <c r="AE17" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2581,10 +2581,10 @@
       <c r="W18" s="15" t="n">
         <v>46818.7797</v>
       </c>
-      <c r="X18" s="15" t="n">
+      <c r="X18" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y18" s="16" t="n">
+      <c r="Y18" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z18" s="13" t="n">
@@ -2593,18 +2593,18 @@
       <c r="AA18" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB18" s="17" t="n">
+      <c r="AB18" s="18" t="n">
         <v>47.0552</v>
       </c>
-      <c r="AC18" s="17" t="n">
+      <c r="AC18" s="18" t="n">
         <v>9.90002</v>
       </c>
-      <c r="AD18" s="18" t="inlineStr">
+      <c r="AD18" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE18" s="18" t="inlineStr">
+      <c r="AE18" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2684,10 +2684,10 @@
       <c r="W19" s="15" t="n">
         <v>47818.7797</v>
       </c>
-      <c r="X19" s="15" t="n">
+      <c r="X19" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y19" s="16" t="n">
+      <c r="Y19" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z19" s="13" t="n">
@@ -2696,18 +2696,18 @@
       <c r="AA19" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB19" s="17" t="n">
+      <c r="AB19" s="18" t="n">
         <v>47.066462</v>
       </c>
-      <c r="AC19" s="17" t="n">
+      <c r="AC19" s="18" t="n">
         <v>9.915794999999999</v>
       </c>
-      <c r="AD19" s="18" t="inlineStr">
+      <c r="AD19" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE19" s="18" t="inlineStr">
+      <c r="AE19" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2787,10 +2787,10 @@
       <c r="W20" s="15" t="n">
         <v>48818.7797</v>
       </c>
-      <c r="X20" s="15" t="n">
+      <c r="X20" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y20" s="16" t="n">
+      <c r="Y20" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z20" s="13" t="n">
@@ -2799,18 +2799,18 @@
       <c r="AA20" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB20" s="17" t="n">
+      <c r="AB20" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC20" s="17" t="n">
+      <c r="AC20" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD20" s="18" t="inlineStr">
+      <c r="AD20" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE20" s="18" t="inlineStr">
+      <c r="AE20" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2890,10 +2890,10 @@
       <c r="W21" s="15" t="n">
         <v>49818.7797</v>
       </c>
-      <c r="X21" s="15" t="n">
+      <c r="X21" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y21" s="16" t="n">
+      <c r="Y21" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z21" s="13" t="n">
@@ -2902,18 +2902,18 @@
       <c r="AA21" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB21" s="17" t="n">
+      <c r="AB21" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC21" s="17" t="n">
+      <c r="AC21" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD21" s="18" t="inlineStr">
+      <c r="AD21" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE21" s="18" t="inlineStr">
+      <c r="AE21" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -2993,10 +2993,10 @@
       <c r="W22" s="15" t="n">
         <v>24781.4991</v>
       </c>
-      <c r="X22" s="15" t="n">
+      <c r="X22" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y22" s="16" t="n">
+      <c r="Y22" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z22" s="13" t="n">
@@ -3005,18 +3005,18 @@
       <c r="AA22" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB22" s="17" t="n">
+      <c r="AB22" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC22" s="17" t="n">
+      <c r="AC22" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD22" s="18" t="inlineStr">
+      <c r="AD22" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE22" s="18" t="inlineStr">
+      <c r="AE22" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -3096,10 +3096,10 @@
       <c r="W23" s="15" t="n">
         <v>25781.4991</v>
       </c>
-      <c r="X23" s="15" t="n">
+      <c r="X23" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y23" s="16" t="n">
+      <c r="Y23" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z23" s="13" t="n">
@@ -3108,18 +3108,18 @@
       <c r="AA23" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB23" s="17" t="n">
+      <c r="AB23" s="18" t="n">
         <v>46.561055</v>
       </c>
-      <c r="AC23" s="17" t="n">
+      <c r="AC23" s="18" t="n">
         <v>14.47957</v>
       </c>
-      <c r="AD23" s="18" t="inlineStr">
+      <c r="AD23" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE23" s="18" t="inlineStr">
+      <c r="AE23" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -3199,10 +3199,10 @@
       <c r="W24" s="15" t="n">
         <v>26781.4991</v>
       </c>
-      <c r="X24" s="15" t="n">
+      <c r="X24" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y24" s="16" t="n">
+      <c r="Y24" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z24" s="13" t="n">
@@ -3211,18 +3211,18 @@
       <c r="AA24" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB24" s="17" t="n">
+      <c r="AB24" s="18" t="n">
         <v>47.0552</v>
       </c>
-      <c r="AC24" s="17" t="n">
+      <c r="AC24" s="18" t="n">
         <v>9.90002</v>
       </c>
-      <c r="AD24" s="18" t="inlineStr">
+      <c r="AD24" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE24" s="18" t="inlineStr">
+      <c r="AE24" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -3302,10 +3302,10 @@
       <c r="W25" s="15" t="n">
         <v>27781.4991</v>
       </c>
-      <c r="X25" s="15" t="n">
+      <c r="X25" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y25" s="16" t="n">
+      <c r="Y25" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z25" s="13" t="n">
@@ -3314,18 +3314,18 @@
       <c r="AA25" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB25" s="17" t="n">
+      <c r="AB25" s="18" t="n">
         <v>47.066462</v>
       </c>
-      <c r="AC25" s="17" t="n">
+      <c r="AC25" s="18" t="n">
         <v>9.915794999999999</v>
       </c>
-      <c r="AD25" s="18" t="inlineStr">
+      <c r="AD25" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE25" s="18" t="inlineStr">
+      <c r="AE25" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -3405,10 +3405,10 @@
       <c r="W26" s="15" t="n">
         <v>28781.4991</v>
       </c>
-      <c r="X26" s="15" t="n">
+      <c r="X26" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y26" s="16" t="n">
+      <c r="Y26" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z26" s="13" t="n">
@@ -3417,18 +3417,18 @@
       <c r="AA26" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB26" s="17" t="n">
+      <c r="AB26" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC26" s="17" t="n">
+      <c r="AC26" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD26" s="18" t="inlineStr">
+      <c r="AD26" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE26" s="18" t="inlineStr">
+      <c r="AE26" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -3508,10 +3508,10 @@
       <c r="W27" s="15" t="n">
         <v>43367.6234</v>
       </c>
-      <c r="X27" s="15" t="n">
+      <c r="X27" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y27" s="16" t="n">
+      <c r="Y27" s="17" t="n">
         <v>0.254</v>
       </c>
       <c r="Z27" s="13" t="n">
@@ -3520,18 +3520,18 @@
       <c r="AA27" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB27" s="17" t="n">
+      <c r="AB27" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC27" s="17" t="n">
+      <c r="AC27" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD27" s="18" t="inlineStr">
+      <c r="AD27" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE27" s="18" t="inlineStr">
+      <c r="AE27" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -3562,30 +3562,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.5709375" customWidth="1" min="1" max="1"/>
-    <col width="20.2809375" customWidth="1" min="2" max="2"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
     <col width="15.7109375" customWidth="1" min="5" max="5"/>
-    <col width="20.0109375" customWidth="1" min="6" max="6"/>
-    <col width="19.7109375" customWidth="1" min="7" max="7"/>
-    <col width="19.7109375" customWidth="1" min="8" max="8"/>
-    <col width="19.7109375" customWidth="1" min="9" max="9"/>
-    <col width="19.7109375" customWidth="1" min="10" max="10"/>
-    <col width="19.7109375" customWidth="1" min="11" max="11"/>
-    <col width="19.7109375" customWidth="1" min="12" max="12"/>
-    <col width="19.7109375" customWidth="1" min="13" max="13"/>
-    <col width="19.7109375" customWidth="1" min="14" max="14"/>
-    <col width="19.7109375" customWidth="1" min="15" max="15"/>
-    <col width="19.7109375" customWidth="1" min="16" max="16"/>
-    <col width="29.7109375" customWidth="1" min="17" max="17"/>
-    <col width="19.7109375" customWidth="1" min="18" max="18"/>
-    <col width="19.7109375" customWidth="1" min="19" max="19"/>
-    <col width="19.7109375" customWidth="1" min="20" max="20"/>
-    <col width="19.7109375" customWidth="1" min="21" max="21"/>
-    <col width="17.7109375" customWidth="1" min="22" max="22"/>
-    <col width="19.7109375" customWidth="1" min="23" max="23"/>
-    <col width="19.7109375" customWidth="1" min="24" max="24"/>
-    <col width="19.7109375" customWidth="1" min="25" max="25"/>
+    <col width="15.7109375" customWidth="1" min="6" max="6"/>
+    <col width="15.7109375" customWidth="1" min="7" max="7"/>
+    <col width="15.7109375" customWidth="1" min="8" max="8"/>
+    <col width="17.5709375" customWidth="1" min="9" max="9"/>
+    <col width="17.5709375" customWidth="1" min="10" max="10"/>
+    <col width="15.7109375" customWidth="1" min="11" max="11"/>
+    <col width="15.7109375" customWidth="1" min="12" max="12"/>
+    <col width="15.7109375" customWidth="1" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" min="15" max="15"/>
+    <col width="15.7109375" customWidth="1" min="16" max="16"/>
+    <col width="28.7109375" customWidth="1" min="17" max="17"/>
+    <col width="23.7109375" customWidth="1" min="18" max="18"/>
+    <col width="15.7109375" customWidth="1" min="19" max="19"/>
+    <col width="22.7109375" customWidth="1" min="20" max="20"/>
+    <col width="15.7109375" customWidth="1" min="21" max="21"/>
+    <col width="15.7109375" customWidth="1" min="22" max="22"/>
+    <col width="15.7109375" customWidth="1" min="23" max="23"/>
+    <col width="15.7109375" customWidth="1" min="24" max="24"/>
+    <col width="15.7109375" customWidth="1" min="25" max="25"/>
     <col width="20.2109375" customWidth="1" min="26" max="26"/>
     <col width="20.2109375" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Generator name</t>
+          <t>Generator/Unit name</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
@@ -3986,52 +3986,52 @@
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>Maximum active power output of the generator</t>
+          <t>Maximum active power output of the unit</t>
         </is>
       </c>
       <c r="H5" s="7" t="inlineStr">
         <is>
-          <t>Minimum active power output of the generator</t>
+          <t>Minimum active power output of the unit</t>
         </is>
       </c>
       <c r="I5" s="7" t="inlineStr">
         <is>
-          <t>Rate at which the generator can increase its output per time step</t>
+          <t>Rate at which the unit can increase its output per time step</t>
         </is>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
-          <t>Rate at which the generator can decrease its output per time step</t>
+          <t>Rate at which the unit can decrease its output per time step</t>
         </is>
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
-          <t>Minimum time the generator has to be on after a startup</t>
+          <t>Minimum time the unit has to be on after a startup</t>
         </is>
       </c>
       <c r="L5" s="7" t="inlineStr">
         <is>
-          <t>Minimum time the generator has to be off after a shutdown</t>
+          <t>Minimum time the unit has to be off after a shutdown</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>Maximum reactive power output of the generator</t>
+          <t>Maximum reactive power output of the unit</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t>Minimum reactive power of the generator</t>
+          <t>Minimum reactive power output of the unit</t>
         </is>
       </c>
       <c r="O5" s="7" t="inlineStr">
         <is>
-          <t>Inertia constant H of the generator</t>
+          <t>Inertia constant H of the unit</t>
         </is>
       </c>
       <c r="P5" s="7" t="inlineStr">
         <is>
-          <t>Fuel cost of the thermal generator</t>
+          <t>Fuel cost of the unit</t>
         </is>
       </c>
       <c r="Q5" s="7" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="S5" s="7" t="inlineStr">
         <is>
-          <t>Operation and maintenance cost of the generator</t>
+          <t>Operation and maintenance cost of the unit</t>
         </is>
       </c>
       <c r="T5" s="7" t="inlineStr">
@@ -4056,27 +4056,27 @@
       </c>
       <c r="U5" s="7" t="inlineStr">
         <is>
-          <t>Equivalent forced outage rate of the generator</t>
+          <t>Equivalent forced outage rate of the unit</t>
         </is>
       </c>
       <c r="V5" s="7" t="inlineStr">
         <is>
-          <t>Whether the model can invest in the generator (1) or not (0)</t>
+          <t>Whether the model can invest in the unit (1) or not (0)</t>
         </is>
       </c>
       <c r="W5" s="7" t="inlineStr">
         <is>
-          <t>Annualized investment cost for the generator</t>
+          <t>Annualized investment cost per MW</t>
         </is>
       </c>
       <c r="X5" s="7" t="inlineStr">
         <is>
-          <t>Firm capacity coefficient of the generator</t>
+          <t>Firm capacity coefficient of the unit</t>
         </is>
       </c>
       <c r="Y5" s="7" t="inlineStr">
         <is>
-          <t>Specific CO2 emissions of the generator</t>
+          <t>Specific CO2 emissions of the unit</t>
         </is>
       </c>
       <c r="Z5" s="7" t="inlineStr">
@@ -4490,10 +4490,10 @@
       <c r="W8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="15" t="n">
+      <c r="X8" s="16" t="n">
         <v>0.97</v>
       </c>
-      <c r="Y8" s="16" t="n">
+      <c r="Y8" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z8" s="13" t="n">
@@ -4502,18 +4502,18 @@
       <c r="AA8" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB8" s="17" t="n">
+      <c r="AB8" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC8" s="17" t="n">
+      <c r="AC8" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD8" s="18" t="inlineStr">
+      <c r="AD8" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE8" s="18" t="inlineStr">
+      <c r="AE8" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -4593,10 +4593,10 @@
       <c r="W9" s="15" t="n">
         <v>145591.3071</v>
       </c>
-      <c r="X9" s="15" t="n">
+      <c r="X9" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y9" s="16" t="n">
+      <c r="Y9" s="17" t="n">
         <v>0.355</v>
       </c>
       <c r="Z9" s="13" t="n">
@@ -4605,18 +4605,18 @@
       <c r="AA9" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC9" s="17" t="n">
+      <c r="AC9" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD9" s="18" t="inlineStr">
+      <c r="AD9" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE9" s="18" t="inlineStr">
+      <c r="AE9" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -4696,10 +4696,10 @@
       <c r="W10" s="15" t="n">
         <v>146591.3071</v>
       </c>
-      <c r="X10" s="15" t="n">
+      <c r="X10" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y10" s="16" t="n">
+      <c r="Y10" s="17" t="n">
         <v>0.335</v>
       </c>
       <c r="Z10" s="13" t="n">
@@ -4708,18 +4708,18 @@
       <c r="AA10" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB10" s="17" t="n">
+      <c r="AB10" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC10" s="17" t="n">
+      <c r="AC10" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD10" s="18" t="inlineStr">
+      <c r="AD10" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE10" s="18" t="inlineStr">
+      <c r="AE10" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -4799,10 +4799,10 @@
       <c r="W11" s="15" t="n">
         <v>147591.3071</v>
       </c>
-      <c r="X11" s="15" t="n">
+      <c r="X11" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y11" s="16" t="n">
+      <c r="Y11" s="17" t="n">
         <v>0.332</v>
       </c>
       <c r="Z11" s="13" t="n">
@@ -4811,18 +4811,18 @@
       <c r="AA11" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB11" s="17" t="n">
+      <c r="AB11" s="18" t="n">
         <v>46.561055</v>
       </c>
-      <c r="AC11" s="17" t="n">
+      <c r="AC11" s="18" t="n">
         <v>14.47957</v>
       </c>
-      <c r="AD11" s="18" t="inlineStr">
+      <c r="AD11" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE11" s="18" t="inlineStr">
+      <c r="AE11" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -4902,10 +4902,10 @@
       <c r="W12" s="15" t="n">
         <v>148591.3071</v>
       </c>
-      <c r="X12" s="15" t="n">
+      <c r="X12" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y12" s="16" t="n">
+      <c r="Y12" s="17" t="n">
         <v>0.319</v>
       </c>
       <c r="Z12" s="13" t="n">
@@ -4914,18 +4914,18 @@
       <c r="AA12" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="18" t="n">
         <v>47.0552</v>
       </c>
-      <c r="AC12" s="17" t="n">
+      <c r="AC12" s="18" t="n">
         <v>9.90002</v>
       </c>
-      <c r="AD12" s="18" t="inlineStr">
+      <c r="AD12" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE12" s="18" t="inlineStr">
+      <c r="AE12" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5005,10 +5005,10 @@
       <c r="W13" s="15" t="n">
         <v>41818.7797</v>
       </c>
-      <c r="X13" s="15" t="n">
+      <c r="X13" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y13" s="16" t="n">
+      <c r="Y13" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z13" s="13" t="n">
@@ -5017,18 +5017,18 @@
       <c r="AA13" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="18" t="n">
         <v>47.066462</v>
       </c>
-      <c r="AC13" s="17" t="n">
+      <c r="AC13" s="18" t="n">
         <v>9.915794999999999</v>
       </c>
-      <c r="AD13" s="18" t="inlineStr">
+      <c r="AD13" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE13" s="18" t="inlineStr">
+      <c r="AE13" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5108,10 +5108,10 @@
       <c r="W14" s="15" t="n">
         <v>42818.7797</v>
       </c>
-      <c r="X14" s="15" t="n">
+      <c r="X14" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y14" s="16" t="n">
+      <c r="Y14" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z14" s="13" t="n">
@@ -5120,18 +5120,18 @@
       <c r="AA14" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC14" s="17" t="n">
+      <c r="AC14" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD14" s="18" t="inlineStr">
+      <c r="AD14" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE14" s="18" t="inlineStr">
+      <c r="AE14" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5211,10 +5211,10 @@
       <c r="W15" s="15" t="n">
         <v>43818.7797</v>
       </c>
-      <c r="X15" s="15" t="n">
+      <c r="X15" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y15" s="16" t="n">
+      <c r="Y15" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z15" s="13" t="n">
@@ -5223,18 +5223,18 @@
       <c r="AA15" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC15" s="17" t="n">
+      <c r="AC15" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD15" s="18" t="inlineStr">
+      <c r="AD15" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE15" s="18" t="inlineStr">
+      <c r="AE15" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -5314,10 +5314,10 @@
       <c r="W16" s="15" t="n">
         <v>44818.7797</v>
       </c>
-      <c r="X16" s="15" t="n">
+      <c r="X16" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y16" s="16" t="n">
+      <c r="Y16" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z16" s="13" t="n">
@@ -5326,18 +5326,18 @@
       <c r="AA16" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC16" s="17" t="n">
+      <c r="AC16" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD16" s="18" t="inlineStr">
+      <c r="AD16" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE16" s="18" t="inlineStr">
+      <c r="AE16" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -5421,10 +5421,10 @@
       <c r="W17" s="15" t="n">
         <v>45818.7797</v>
       </c>
-      <c r="X17" s="15" t="n">
+      <c r="X17" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y17" s="16" t="n">
+      <c r="Y17" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z17" s="13" t="n">
@@ -5433,18 +5433,18 @@
       <c r="AA17" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="18" t="n">
         <v>46.561055</v>
       </c>
-      <c r="AC17" s="17" t="n">
+      <c r="AC17" s="18" t="n">
         <v>14.47957</v>
       </c>
-      <c r="AD17" s="18" t="inlineStr">
+      <c r="AD17" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE17" s="18" t="inlineStr">
+      <c r="AE17" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5524,10 +5524,10 @@
       <c r="W18" s="15" t="n">
         <v>46818.7797</v>
       </c>
-      <c r="X18" s="15" t="n">
+      <c r="X18" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y18" s="16" t="n">
+      <c r="Y18" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z18" s="13" t="n">
@@ -5536,18 +5536,18 @@
       <c r="AA18" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB18" s="17" t="n">
+      <c r="AB18" s="18" t="n">
         <v>47.0552</v>
       </c>
-      <c r="AC18" s="17" t="n">
+      <c r="AC18" s="18" t="n">
         <v>9.90002</v>
       </c>
-      <c r="AD18" s="18" t="inlineStr">
+      <c r="AD18" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE18" s="18" t="inlineStr">
+      <c r="AE18" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5627,10 +5627,10 @@
       <c r="W19" s="15" t="n">
         <v>47818.7797</v>
       </c>
-      <c r="X19" s="15" t="n">
+      <c r="X19" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y19" s="16" t="n">
+      <c r="Y19" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z19" s="13" t="n">
@@ -5639,18 +5639,18 @@
       <c r="AA19" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB19" s="17" t="n">
+      <c r="AB19" s="18" t="n">
         <v>47.066462</v>
       </c>
-      <c r="AC19" s="17" t="n">
+      <c r="AC19" s="18" t="n">
         <v>9.915794999999999</v>
       </c>
-      <c r="AD19" s="18" t="inlineStr">
+      <c r="AD19" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE19" s="18" t="inlineStr">
+      <c r="AE19" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5730,10 +5730,10 @@
       <c r="W20" s="15" t="n">
         <v>48818.7797</v>
       </c>
-      <c r="X20" s="15" t="n">
+      <c r="X20" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y20" s="16" t="n">
+      <c r="Y20" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z20" s="13" t="n">
@@ -5742,18 +5742,18 @@
       <c r="AA20" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB20" s="17" t="n">
+      <c r="AB20" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC20" s="17" t="n">
+      <c r="AC20" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD20" s="18" t="inlineStr">
+      <c r="AD20" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE20" s="18" t="inlineStr">
+      <c r="AE20" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5833,10 +5833,10 @@
       <c r="W21" s="15" t="n">
         <v>49818.7797</v>
       </c>
-      <c r="X21" s="15" t="n">
+      <c r="X21" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y21" s="16" t="n">
+      <c r="Y21" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z21" s="13" t="n">
@@ -5845,18 +5845,18 @@
       <c r="AA21" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB21" s="17" t="n">
+      <c r="AB21" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC21" s="17" t="n">
+      <c r="AC21" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD21" s="18" t="inlineStr">
+      <c r="AD21" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE21" s="18" t="inlineStr">
+      <c r="AE21" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -5936,10 +5936,10 @@
       <c r="W22" s="15" t="n">
         <v>24781.4991</v>
       </c>
-      <c r="X22" s="15" t="n">
+      <c r="X22" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y22" s="16" t="n">
+      <c r="Y22" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z22" s="13" t="n">
@@ -5948,18 +5948,18 @@
       <c r="AA22" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB22" s="17" t="n">
+      <c r="AB22" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC22" s="17" t="n">
+      <c r="AC22" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD22" s="18" t="inlineStr">
+      <c r="AD22" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE22" s="18" t="inlineStr">
+      <c r="AE22" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -6039,10 +6039,10 @@
       <c r="W23" s="15" t="n">
         <v>25781.4991</v>
       </c>
-      <c r="X23" s="15" t="n">
+      <c r="X23" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y23" s="16" t="n">
+      <c r="Y23" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z23" s="13" t="n">
@@ -6051,18 +6051,18 @@
       <c r="AA23" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB23" s="17" t="n">
+      <c r="AB23" s="18" t="n">
         <v>46.561055</v>
       </c>
-      <c r="AC23" s="17" t="n">
+      <c r="AC23" s="18" t="n">
         <v>14.47957</v>
       </c>
-      <c r="AD23" s="18" t="inlineStr">
+      <c r="AD23" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE23" s="18" t="inlineStr">
+      <c r="AE23" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -6142,10 +6142,10 @@
       <c r="W24" s="15" t="n">
         <v>26781.4991</v>
       </c>
-      <c r="X24" s="15" t="n">
+      <c r="X24" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y24" s="16" t="n">
+      <c r="Y24" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z24" s="13" t="n">
@@ -6154,18 +6154,18 @@
       <c r="AA24" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB24" s="17" t="n">
+      <c r="AB24" s="18" t="n">
         <v>47.0552</v>
       </c>
-      <c r="AC24" s="17" t="n">
+      <c r="AC24" s="18" t="n">
         <v>9.90002</v>
       </c>
-      <c r="AD24" s="18" t="inlineStr">
+      <c r="AD24" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE24" s="18" t="inlineStr">
+      <c r="AE24" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
@@ -6245,10 +6245,10 @@
       <c r="W25" s="15" t="n">
         <v>27781.4991</v>
       </c>
-      <c r="X25" s="15" t="n">
+      <c r="X25" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y25" s="16" t="n">
+      <c r="Y25" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z25" s="13" t="n">
@@ -6257,18 +6257,18 @@
       <c r="AA25" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB25" s="17" t="n">
+      <c r="AB25" s="18" t="n">
         <v>47.066462</v>
       </c>
-      <c r="AC25" s="17" t="n">
+      <c r="AC25" s="18" t="n">
         <v>9.915794999999999</v>
       </c>
-      <c r="AD25" s="18" t="inlineStr">
+      <c r="AD25" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE25" s="18" t="inlineStr">
+      <c r="AE25" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -6348,10 +6348,10 @@
       <c r="W26" s="15" t="n">
         <v>28781.4991</v>
       </c>
-      <c r="X26" s="15" t="n">
+      <c r="X26" s="16" t="n">
         <v>0.96</v>
       </c>
-      <c r="Y26" s="16" t="n">
+      <c r="Y26" s="17" t="n">
         <v>0.181</v>
       </c>
       <c r="Z26" s="13" t="n">
@@ -6360,18 +6360,18 @@
       <c r="AA26" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB26" s="17" t="n">
+      <c r="AB26" s="18" t="n">
         <v>47.4913</v>
       </c>
-      <c r="AC26" s="17" t="n">
+      <c r="AC26" s="18" t="n">
         <v>12.8182</v>
       </c>
-      <c r="AD26" s="18" t="inlineStr">
+      <c r="AD26" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE26" s="18" t="inlineStr">
+      <c r="AE26" s="19" t="inlineStr">
         <is>
           <t>TestSource1-Manual2.1</t>
         </is>
@@ -6451,10 +6451,10 @@
       <c r="W27" s="15" t="n">
         <v>43367.6234</v>
       </c>
-      <c r="X27" s="15" t="n">
+      <c r="X27" s="16" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y27" s="16" t="n">
+      <c r="Y27" s="17" t="n">
         <v>0.254</v>
       </c>
       <c r="Z27" s="13" t="n">
@@ -6463,18 +6463,18 @@
       <c r="AA27" s="13" t="n">
         <v>2050</v>
       </c>
-      <c r="AB27" s="17" t="n">
+      <c r="AB27" s="18" t="n">
         <v>46.77</v>
       </c>
-      <c r="AC27" s="17" t="n">
+      <c r="AC27" s="18" t="n">
         <v>13.7467</v>
       </c>
-      <c r="AD27" s="18" t="inlineStr">
+      <c r="AD27" s="19" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="AE27" s="18" t="inlineStr">
+      <c r="AE27" s="19" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
